--- a/PyCoTools/PyCoToolsTutorial/PEConfigFile.xlsx
+++ b/PyCoTools/PyCoToolsTutorial/PEConfigFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
   <si>
     <t>StartValue</t>
   </si>
@@ -127,82 +127,94 @@
     <t>Mek1-P</t>
   </si>
   <si>
-    <t>10.977</t>
-  </si>
-  <si>
-    <t>2.64043e-05</t>
-  </si>
-  <si>
-    <t>0.000262119</t>
-  </si>
-  <si>
-    <t>340.408</t>
-  </si>
-  <si>
-    <t>0.899837</t>
-  </si>
-  <si>
-    <t>861.9</t>
-  </si>
-  <si>
-    <t>4.18195</t>
-  </si>
-  <si>
-    <t>88.1199</t>
-  </si>
-  <si>
-    <t>0.0520377</t>
-  </si>
-  <si>
-    <t>0.000197288</t>
-  </si>
-  <si>
-    <t>1.76938e-06</t>
-  </si>
-  <si>
-    <t>605057.0</t>
-  </si>
-  <si>
-    <t>66.5179</t>
-  </si>
-  <si>
-    <t>7.39701</t>
-  </si>
-  <si>
-    <t>1.88839</t>
-  </si>
-  <si>
-    <t>0.000137201</t>
-  </si>
-  <si>
-    <t>6864.03</t>
-  </si>
-  <si>
-    <t>3409.55</t>
-  </si>
-  <si>
-    <t>92.8198</t>
-  </si>
-  <si>
-    <t>0.401565</t>
-  </si>
-  <si>
-    <t>7132.05</t>
-  </si>
-  <si>
-    <t>571088.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
+    <t>93469.1</t>
+  </si>
+  <si>
+    <t>1.17974e-05</t>
+  </si>
+  <si>
+    <t>1.32781e-06</t>
+  </si>
+  <si>
+    <t>0.00150075</t>
+  </si>
+  <si>
+    <t>111567.0</t>
+  </si>
+  <si>
+    <t>0.0012414</t>
+  </si>
+  <si>
+    <t>55.0312</t>
+  </si>
+  <si>
+    <t>1.13833e-06</t>
+  </si>
+  <si>
+    <t>0.000458359</t>
+  </si>
+  <si>
+    <t>69378.3</t>
+  </si>
+  <si>
+    <t>0.271666</t>
+  </si>
+  <si>
+    <t>0.00300255</t>
+  </si>
+  <si>
+    <t>1.2655</t>
+  </si>
+  <si>
+    <t>27598.7</t>
+  </si>
+  <si>
+    <t>33.4784</t>
+  </si>
+  <si>
+    <t>1.47402</t>
+  </si>
+  <si>
+    <t>19.5641</t>
+  </si>
+  <si>
+    <t>0.00024886</t>
+  </si>
+  <si>
+    <t>1.08283e-06</t>
+  </si>
+  <si>
+    <t>1.04624e-06</t>
+  </si>
+  <si>
+    <t>0.0508572</t>
+  </si>
+  <si>
+    <t>0.888386</t>
+  </si>
+  <si>
+    <t>0.00015081</t>
+  </si>
+  <si>
+    <t>1.00709e-05</t>
+  </si>
+  <si>
+    <t>2.39504999999e-06</t>
+  </si>
+  <si>
+    <t>2.68908000001</t>
+  </si>
+  <si>
+    <t>9.01158999999</t>
   </si>
   <si>
     <t>1e-06</t>
+  </si>
+  <si>
+    <t>0.00468253</t>
+  </si>
+  <si>
+    <t>1.01608e-06</t>
   </si>
   <si>
     <t>1000000</t>
@@ -702,19 +714,19 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -725,19 +737,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -748,19 +760,19 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -771,19 +783,19 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -794,19 +806,19 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -817,19 +829,19 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -840,19 +852,19 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -863,19 +875,19 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -886,19 +898,19 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -909,19 +921,19 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -932,19 +944,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -955,19 +967,19 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -978,19 +990,19 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1001,19 +1013,19 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1024,19 +1036,19 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1047,19 +1059,19 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1070,19 +1082,19 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1093,19 +1105,19 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1116,19 +1128,19 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1139,19 +1151,19 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1162,19 +1174,19 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1185,19 +1197,19 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1208,19 +1220,19 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1231,19 +1243,19 @@
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1254,19 +1266,19 @@
         <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1274,22 +1286,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1297,22 +1309,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1320,22 +1332,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1343,22 +1355,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1366,22 +1378,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
